--- a/amazon_catalog_sognare.xlsx
+++ b/amazon_catalog_sognare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/05 - Ad Hoc Analysis/Amazon - Visitas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be230b8ca95fc96a/Inova/05 - Ad Hoc Analysis/Amazon/Amazon - Sales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_661547D2DCFB4EFFC07E1683D85B8628D28B22BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E607390E-33CE-4A0D-997A-3F8B2BBB434D}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_661547D2DCFB4EFFC07E1683D85B8628D28B22BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761B3100-33D2-489D-B228-2540C761A2B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="420">
   <si>
     <t>ASIN</t>
   </si>
@@ -1264,6 +1264,30 @@
   </si>
   <si>
     <t>3N-ZC9J-P83N</t>
+  </si>
+  <si>
+    <t>8B-9WVK-ISVT</t>
+  </si>
+  <si>
+    <t>Theramed</t>
+  </si>
+  <si>
+    <t>Sognare® Almohada Fussión 6 Pack Tamaño Estándar, Relleno Suave, Anti Ácaros y Lavable. Hipoalergénico, Anti Ácaros y Lavable. Cont. 6 Pzas.</t>
+  </si>
+  <si>
+    <t>B0B7VF1S57</t>
+  </si>
+  <si>
+    <t>B0DFKVST8R</t>
+  </si>
+  <si>
+    <t>Sognare Theramed PRO Colchoneta de Masaje con 3 Terapias: Calor Infrarrojo, Vibración y Masaje Shiatsu. Alivia la Tensión, Rigidez y Dolor Corporal. 100 Noches de Garantía.</t>
+  </si>
+  <si>
+    <t>Sognare Set 1 Cubre Colchón Individual + 1 Almohada Estandar Fussión Firme + 1 Almohada Suave. Hipoalergénico, Anti Ácaros y Lavable. Cont. 3 Pzas.</t>
+  </si>
+  <si>
+    <t>B0B76D5HF2</t>
   </si>
 </sst>
 </file>
@@ -1622,11 +1646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3674,27 +3698,59 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>415</v>
+      </c>
       <c r="B106" t="s">
         <v>170</v>
       </c>
+      <c r="E106" t="s">
+        <v>414</v>
+      </c>
       <c r="F106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>416</v>
+      </c>
       <c r="B107" t="s">
         <v>171</v>
       </c>
+      <c r="E107" t="s">
+        <v>417</v>
+      </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>419</v>
+      </c>
       <c r="B108" t="s">
         <v>172</v>
       </c>
+      <c r="E108" t="s">
+        <v>418</v>
+      </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s">
+        <v>412</v>
+      </c>
+      <c r="E109" t="s">
+        <v>86</v>
+      </c>
+      <c r="F109" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
